--- a/data/english-word-1600.xlsx
+++ b/data/english-word-1600.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eomjinyoung/git/english-word/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF30A18B-0164-2742-A2CE-B311429A3586}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7056C5F5-BF02-D345-91D3-B4488FFF7A1D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19580" xr2:uid="{6F550584-3A52-564C-81AC-911A4834632A}"/>
   </bookViews>
@@ -12773,7 +12773,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -12834,7 +12834,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13153,15 +13153,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE5726B-7C81-6D4E-B10C-F81093DB4370}">
   <dimension ref="A1:C1600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1580" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1600"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C1581" sqref="C1581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="4"/>
+    <col min="3" max="3" width="3.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
